--- a/etc/PrintPupper_design.xlsx
+++ b/etc/PrintPupper_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2fc58c125a83494/OneDriveWork2/DogRobot_2/git/PrintPupper/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1071" documentId="11_AD4D066CA252ABDACC1048D82150F65073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94AC8CC-81C5-45DB-BFA3-4BB148BC071E}"/>
+  <xr:revisionPtr revIDLastSave="1092" documentId="11_AD4D066CA252ABDACC1048D82150F65073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60763D93-F732-4111-BCCE-3A5CE3815912}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
   <si>
     <t>Front Right</t>
     <phoneticPr fontId="1"/>
@@ -1024,6 +1024,53 @@
     <rPh sb="1" eb="2">
       <t>マタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freecad\export\05_knee_horn_4pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\06_coxa_outer_4pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\07_coxa_innter_Front_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\08_coxa_innter_Back_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\09_torso_center_1pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\10_torso_frontback_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\11_pcb_box_1pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\12_pcb_box_lid_1pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\13_battery_holder_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\01_lower_leg_Left_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\02_lower_leg_Right_2pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\03_upper_leg_4pcs.stl</t>
+  </si>
+  <si>
+    <t>freecad\export\04_knee_linkage_4pcs.stl</t>
+  </si>
+  <si>
+    <t>kicad\PrintPupper_PCB_v01.kicad_pcb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3471,6 +3518,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3734,13 +3785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7D1475-7C2E-453F-85EC-135A24A1C97C}">
-  <dimension ref="B2:P70"/>
+  <dimension ref="B2:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:18">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3766,8 +3817,11 @@
       <c r="P2" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="R2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
       <c r="B3" s="7" t="s">
         <v>160</v>
       </c>
@@ -3795,7 +3849,7 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:18">
       <c r="B4" s="10"/>
       <c r="E4" t="s">
         <v>164</v>
@@ -3805,11 +3859,11 @@
       </c>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:18">
       <c r="B5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:18">
       <c r="B6" s="7" t="s">
         <v>92</v>
       </c>
@@ -3837,7 +3891,7 @@
       </c>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:18">
       <c r="B7" s="10"/>
       <c r="E7" t="s">
         <v>120</v>
@@ -3854,7 +3908,7 @@
       </c>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:18">
       <c r="B8" s="10"/>
       <c r="E8" t="s">
         <v>79</v>
@@ -3873,7 +3927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:18">
       <c r="B9" s="10"/>
       <c r="E9" t="s">
         <v>90</v>
@@ -3890,7 +3944,7 @@
       </c>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:18">
       <c r="B10" s="10"/>
       <c r="E10" t="s">
         <v>89</v>
@@ -3907,7 +3961,7 @@
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:18">
       <c r="B11" s="10"/>
       <c r="E11" t="s">
         <v>82</v>
@@ -3923,7 +3977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:18">
       <c r="B12" s="10"/>
       <c r="E12" t="s">
         <v>75</v>
@@ -3942,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:18">
       <c r="B13" s="10"/>
       <c r="E13" t="s">
         <v>122</v>
@@ -3959,7 +4013,7 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:18">
       <c r="B14" s="10"/>
       <c r="E14" t="s">
         <v>77</v>
@@ -3976,7 +4030,7 @@
       </c>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:18">
       <c r="B15" s="10"/>
       <c r="E15" t="s">
         <v>173</v>
@@ -3993,11 +4047,11 @@
       </c>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:18">
       <c r="B16" s="10"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="E17" t="s">
         <v>87</v>
@@ -4013,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="E18" t="s">
         <v>86</v>
@@ -4029,11 +4083,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="E20" t="s">
         <v>184</v>
@@ -4049,11 +4103,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="E22" t="s">
         <v>118</v>
@@ -4070,7 +4124,7 @@
       </c>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:18">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -4087,7 +4141,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:18">
       <c r="B24" s="10" t="s">
         <v>186</v>
       </c>
@@ -4106,7 +4160,7 @@
       </c>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:18">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -4123,7 +4177,7 @@
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:18">
       <c r="B26" s="7" t="s">
         <v>93</v>
       </c>
@@ -4147,8 +4201,11 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="R26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27" s="10">
         <f>SUM(M26:M38)</f>
         <v>31</v>
@@ -4166,8 +4223,11 @@
         <v>2</v>
       </c>
       <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="R27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="10"/>
       <c r="E28" t="s">
         <v>94</v>
@@ -4179,8 +4239,11 @@
         <v>4</v>
       </c>
       <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="R28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29" s="10"/>
       <c r="E29" t="s">
         <v>95</v>
@@ -4192,8 +4255,11 @@
         <v>4</v>
       </c>
       <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="R29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30" s="10"/>
       <c r="E30" t="s">
         <v>96</v>
@@ -4205,8 +4271,11 @@
         <v>4</v>
       </c>
       <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="R30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31" s="10"/>
       <c r="E31" t="s">
         <v>97</v>
@@ -4218,8 +4287,11 @@
         <v>4</v>
       </c>
       <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="R31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="B32" s="10"/>
       <c r="E32" t="s">
         <v>98</v>
@@ -4231,8 +4303,11 @@
         <v>2</v>
       </c>
       <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="R32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
       <c r="B33" s="10"/>
       <c r="E33" t="s">
         <v>99</v>
@@ -4244,8 +4319,11 @@
         <v>2</v>
       </c>
       <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="R33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="E34" t="s">
         <v>100</v>
@@ -4257,8 +4335,11 @@
         <v>1</v>
       </c>
       <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="R34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="E35" t="s">
         <v>101</v>
@@ -4270,8 +4351,11 @@
         <v>2</v>
       </c>
       <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="R35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="E36" t="s">
         <v>104</v>
@@ -4283,8 +4367,11 @@
         <v>1</v>
       </c>
       <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="R36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="E37" t="s">
         <v>105</v>
@@ -4296,8 +4383,11 @@
         <v>1</v>
       </c>
       <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="R37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="E38" t="s">
         <v>106</v>
@@ -4309,8 +4399,11 @@
         <v>2</v>
       </c>
       <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="R38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -4327,7 +4420,7 @@
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:18">
       <c r="B40" s="7" t="s">
         <v>123</v>
       </c>
@@ -4351,8 +4444,11 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="R40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="E41" t="s">
         <v>127</v>
@@ -4365,25 +4461,25 @@
       </c>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:18">
       <c r="B42" s="10"/>
       <c r="F42" t="s">
         <v>153</v>
       </c>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:18">
       <c r="B43" s="10"/>
       <c r="F43" t="s">
         <v>156</v>
       </c>
       <c r="P43" s="11"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:18">
       <c r="B44" s="10"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:18">
       <c r="B45" s="10"/>
       <c r="E45" t="s">
         <v>128</v>
@@ -4396,7 +4492,7 @@
       </c>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:18">
       <c r="B46" s="10"/>
       <c r="E46" t="s">
         <v>129</v>
@@ -4409,7 +4505,7 @@
       </c>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:18">
       <c r="B47" s="10"/>
       <c r="E47" t="s">
         <v>132</v>
@@ -4422,7 +4518,7 @@
       </c>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:18">
       <c r="B48" s="10"/>
       <c r="E48" t="s">
         <v>174</v>

--- a/etc/PrintPupper_design.xlsx
+++ b/etc/PrintPupper_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2fc58c125a83494/OneDriveWork2/DogRobot_2/git/PrintPupper/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1092" documentId="11_AD4D066CA252ABDACC1048D82150F65073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60763D93-F732-4111-BCCE-3A5CE3815912}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{9CC67CED-55A3-4FF6-B430-CC58A595A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C015C163-E13B-4DE1-86E0-CDE208B141B8}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PowerModule" sheetId="1" r:id="rId3"/>
     <sheet name="IMU" sheetId="3" r:id="rId4"/>
     <sheet name="LED" sheetId="4" r:id="rId5"/>
+    <sheet name="Battery" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="235">
   <si>
     <t>Front Right</t>
     <phoneticPr fontId="1"/>
@@ -781,10 +782,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ Attention, please choice "boost back"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※充電器が別途必要</t>
     <rPh sb="1" eb="4">
       <t>ジュウデンキ</t>
@@ -802,22 +799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ 注意、昇降圧タイプを選んで下さい</t>
-    <rPh sb="2" eb="4">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ショウコウアツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Qua / 数量</t>
     <rPh sb="6" eb="8">
       <t>スウリョウ</t>
@@ -946,17 +927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pin header 2.54mm pitch 2 row</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピンヘッダ 2.54mmピッチ 2列</t>
-    <rPh sb="17" eb="18">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2S 7.4v リポバッテリー タミヤコネクタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1070,7 +1040,204 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>path</t>
+    <t>exportpath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filament</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>about</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in 1kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price x Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pin header 2.54mm pitch 40pin 1 row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンヘッダ 2.54mmピッチ 40ピン 1列</t>
+    <rPh sb="22" eb="23">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pi 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレコム ワイヤレス ゲームパッド JC-U3912TBK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB is ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM of PrintPupper parts list / プリントプッパー部品リスト</t>
+    <rPh sb="40" eb="42">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Servo motor / サーボモータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub 小計</t>
+    <rPh sb="4" eb="6">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ Attention, please choice "boost back".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意、昇降圧タイプを選んで下さい</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウコウアツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaspberryPi Zero ラズパイZero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Lipo Battery バッテリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GamePad ゲームパッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total 総計</t>
+    <rPh sb="6" eb="8">
+      <t>ソウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　配布物「基板キット」内容</t>
+    <rPh sb="1" eb="4">
+      <t>ハイフブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　配布物「組立キット」内容</t>
+    <rPh sb="1" eb="4">
+      <t>ハイフブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クミタテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ a unit cost is about buy Amazon.jp アマゾン購入単価換算</t>
+    <rPh sb="41" eb="43">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ not a kit distribution price キットの配布価格ではありません</t>
+    <rPh sb="35" eb="39">
+      <t>ハイフカカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← more cheaper buy in Aliexpress アリエクで買うともっと安い</t>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※「基板キット」が含まれます</t>
+    <rPh sb="3" eb="5">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品収集</t>
+    <rPh sb="0" eb="4">
+      <t>ブヒンシュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parts sourcing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2S 7.4V Lipo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a robots</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1078,7 +1245,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,16 +1297,67 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1260,12 +1482,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1288,6 +1600,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3518,6 +3896,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D55976-DC84-46EA-8D75-62E1900474C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="11868150" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -3785,1070 +4229,2178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7D1475-7C2E-453F-85EC-135A24A1C97C}">
-  <dimension ref="B2:R70"/>
+  <dimension ref="B2:X87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B2" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="10"/>
+      <c r="N3" s="54"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="21">
+        <f>R16</f>
+        <v>42000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>229</v>
+      </c>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48">
+        <f>R39</f>
+        <v>4368</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="57"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51">
+        <f>R54</f>
+        <v>2800</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="58"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77">
+        <f>R70</f>
+        <v>1564</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="58"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="59"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="20">
+        <f>R87</f>
+        <v>9000</v>
+      </c>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="55">
+        <f>SUM(I4:I11)</f>
+        <v>59732</v>
+      </c>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+    </row>
+    <row r="15" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="S15" s="29"/>
+      <c r="T15" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8">
-        <f>O3*4+P3*2</f>
+      <c r="M16">
+        <f>O16*4+P16*2</f>
         <v>12</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8">
+      <c r="O16">
         <v>3</v>
       </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="10"/>
-      <c r="E4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="10"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
-        <f>O6*4+P6</f>
-        <v>24</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>6</v>
-      </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="10"/>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M24" si="0">O7*4+P7</f>
-        <v>16</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="10"/>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8">
-        <f>O8*4+P8</f>
-        <v>24</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="10"/>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="10"/>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="10"/>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P11" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="10"/>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12">
-        <f>O12*4+P12</f>
-        <v>24</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="10"/>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="10"/>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O14">
-        <v>8</v>
-      </c>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="10"/>
-      <c r="E15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="10"/>
       <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="Q16" s="18">
+        <v>3500</v>
+      </c>
+      <c r="R16" s="19">
+        <f>Q16*M16</f>
+        <v>42000</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="10"/>
       <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="10"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="10"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46">
+        <f>O19*4+P19</f>
+        <v>24</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46">
+        <v>6</v>
+      </c>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="68">
+        <v>8</v>
+      </c>
+      <c r="R19" s="52">
+        <f t="shared" ref="R19:R35" si="0">Q19*M19</f>
+        <v>192</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="53"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46">
+        <f t="shared" ref="M20:M37" si="1">O20*4+P20</f>
+        <v>16</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46">
+        <v>4</v>
+      </c>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="68">
+        <v>12</v>
+      </c>
+      <c r="R20" s="52">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="53"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46">
+        <f>O21*4+P21</f>
+        <v>24</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46">
+        <v>2</v>
+      </c>
+      <c r="P21" s="58">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>15</v>
+      </c>
+      <c r="R21" s="52">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="53"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46">
+        <v>4</v>
+      </c>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="68">
+        <v>5</v>
+      </c>
+      <c r="R22" s="52">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="53"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46">
+        <v>6</v>
+      </c>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="68">
+        <v>10</v>
+      </c>
+      <c r="R23" s="52">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="53"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="58">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>15</v>
+      </c>
+      <c r="R24" s="52">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="B25" s="53"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46">
+        <f>O25*4+P25</f>
+        <v>32</v>
+      </c>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46">
+        <v>6</v>
+      </c>
+      <c r="P25" s="58">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="68">
+        <v>20</v>
+      </c>
+      <c r="R25" s="52">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="53"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46">
+        <v>2</v>
+      </c>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="68">
+        <v>70</v>
+      </c>
+      <c r="R26" s="52">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="53"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46">
+        <v>8</v>
+      </c>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="68">
+        <v>10</v>
+      </c>
+      <c r="R27" s="52">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="53"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46">
+        <v>4</v>
+      </c>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="68">
+        <v>80</v>
+      </c>
+      <c r="R28" s="52">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="S28" s="10"/>
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="53"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="10"/>
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="53"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17">
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="58">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>6</v>
+      </c>
+      <c r="R30" s="52">
         <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="S30" s="10"/>
+      <c r="X30" s="11"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="53"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>70</v>
+      </c>
+      <c r="R31" s="52">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="X31" s="11"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" s="53"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="10"/>
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" s="53"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="68">
+        <v>12</v>
+      </c>
+      <c r="R33" s="52">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="53"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="10"/>
+      <c r="X34" s="11"/>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="53"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46">
+        <v>3</v>
+      </c>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="68">
+        <v>0</v>
+      </c>
+      <c r="R35" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="X35" s="11"/>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="53"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="10"/>
+      <c r="X36" s="11"/>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46">
+        <v>1</v>
+      </c>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="68">
+        <v>2</v>
+      </c>
+      <c r="R37" s="52">
+        <f t="shared" ref="R37" si="2">Q37*M37</f>
         <v>8</v>
       </c>
-      <c r="P17" s="11">
+      <c r="S37" s="10"/>
+      <c r="X37" s="11"/>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" s="53"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="10"/>
+      <c r="X38" s="11"/>
+    </row>
+    <row r="39" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="R39" s="72">
+        <f>SUM(R19:R37)</f>
+        <v>4368</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46">
+        <v>2</v>
+      </c>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="R40" s="58"/>
+      <c r="S40" s="10"/>
+      <c r="T40" t="s">
+        <v>198</v>
+      </c>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="B41" s="53">
+        <f>SUM(M40:M52)</f>
+        <v>31</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46">
+        <v>2</v>
+      </c>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" s="58"/>
+      <c r="S41" s="10"/>
+      <c r="T41" t="s">
+        <v>197</v>
+      </c>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="53"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46">
+        <v>4</v>
+      </c>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="R42" s="58"/>
+      <c r="S42" s="10"/>
+      <c r="T42" t="s">
+        <v>199</v>
+      </c>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="B43" s="53"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46">
+        <v>4</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="R43" s="58"/>
+      <c r="S43" s="10"/>
+      <c r="T43" t="s">
+        <v>200</v>
+      </c>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="B44" s="53"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46">
+        <v>4</v>
+      </c>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="10"/>
+      <c r="T44" t="s">
+        <v>188</v>
+      </c>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" s="53"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46">
+        <v>4</v>
+      </c>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="10"/>
+      <c r="T45" t="s">
+        <v>189</v>
+      </c>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="2:24">
+      <c r="B46" s="53"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46">
+        <v>2</v>
+      </c>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="10"/>
+      <c r="T46" t="s">
+        <v>190</v>
+      </c>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" s="53"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46">
+        <v>2</v>
+      </c>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="58"/>
+      <c r="S47" s="10"/>
+      <c r="T47" t="s">
+        <v>191</v>
+      </c>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="53"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46">
+        <v>1</v>
+      </c>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="10"/>
+      <c r="T48" t="s">
+        <v>192</v>
+      </c>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="B49" s="53"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46">
+        <v>2</v>
+      </c>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="10"/>
+      <c r="T49" t="s">
+        <v>193</v>
+      </c>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="2:24">
+      <c r="B50" s="53"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46">
+        <v>1</v>
+      </c>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="10"/>
+      <c r="T50" t="s">
+        <v>194</v>
+      </c>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="B51" s="53"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46">
+        <v>1</v>
+      </c>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="10"/>
+      <c r="T51" t="s">
+        <v>195</v>
+      </c>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="B52" s="53"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46">
+        <v>2</v>
+      </c>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="10"/>
+      <c r="T52" t="s">
+        <v>196</v>
+      </c>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="B53" s="53"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="10"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="2:24" ht="19.5" thickBot="1">
+      <c r="B54" s="69"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="R54" s="72">
+        <v>2800</v>
+      </c>
+      <c r="S54" s="12"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="14"/>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="B55" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42">
+        <v>1</v>
+      </c>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="62">
+        <v>450</v>
+      </c>
+      <c r="R55" s="43">
+        <f t="shared" ref="R55:R68" si="3">Q55*M55</f>
+        <v>450</v>
+      </c>
+      <c r="S55" s="15"/>
+      <c r="T55" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="17"/>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42">
+        <v>1</v>
+      </c>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="62">
+        <v>500</v>
+      </c>
+      <c r="R56" s="43">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="43"/>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="43"/>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42">
+        <v>3</v>
+      </c>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="62">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="10"/>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P18" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="10"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="10"/>
-      <c r="E20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P20" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="10"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="10"/>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O24">
+      <c r="R59" s="43">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42">
+        <v>2</v>
+      </c>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="62">
+        <v>40</v>
+      </c>
+      <c r="R60" s="43">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42">
         <v>1</v>
       </c>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8">
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="62">
+        <v>35</v>
+      </c>
+      <c r="R61" s="43">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24">
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42">
+        <v>1</v>
+      </c>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="62">
+        <v>5</v>
+      </c>
+      <c r="R62" s="43">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42">
+        <v>1</v>
+      </c>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="62">
+        <v>5</v>
+      </c>
+      <c r="R63" s="43">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24">
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42">
+        <v>1</v>
+      </c>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="62">
+        <v>5</v>
+      </c>
+      <c r="R64" s="43">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42">
+        <v>1</v>
+      </c>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="62">
+        <v>30</v>
+      </c>
+      <c r="R65" s="43">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42">
         <v>2</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
-      <c r="R26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="10">
-        <f>SUM(M26:M38)</f>
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="R27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="10"/>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="R28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="10"/>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="R29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="10"/>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="R30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="10"/>
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="P31" s="11"/>
-      <c r="R31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="10"/>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" t="s">
-        <v>189</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="R32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="10"/>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" t="s">
-        <v>190</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="P33" s="11"/>
-      <c r="R33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="10"/>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" t="s">
-        <v>113</v>
-      </c>
-      <c r="M34">
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="62">
+        <v>25</v>
+      </c>
+      <c r="R66" s="43">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42">
         <v>1</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="R34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="10"/>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" t="s">
-        <v>114</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="R35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="10"/>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" t="s">
-        <v>116</v>
-      </c>
-      <c r="M36">
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="62">
+        <v>80</v>
+      </c>
+      <c r="R67" s="43">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42">
         <v>1</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="R36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="10"/>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37">
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="62">
+        <v>300</v>
+      </c>
+      <c r="R68" s="43">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="44"/>
+    </row>
+    <row r="70" spans="2:18" ht="19.5" thickBot="1">
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="R70" s="67">
+        <f>SUM(R55:R68)</f>
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I71" t="s">
+        <v>145</v>
+      </c>
+      <c r="M71">
         <v>1</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="R37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="10"/>
-      <c r="E38" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="P38" s="11"/>
-      <c r="R38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8">
+      <c r="P71" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="10"/>
+      <c r="F72" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" t="s">
+        <v>147</v>
+      </c>
+      <c r="O72" t="s">
+        <v>213</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="10"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="11"/>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+      <c r="M74">
         <v>1</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
-      <c r="R40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="10"/>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" t="s">
-        <v>126</v>
-      </c>
-      <c r="M41">
+      <c r="P74" s="11"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="10"/>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>149</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="11"/>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="10"/>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="11"/>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="10"/>
+      <c r="F77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I77" t="s">
+        <v>153</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="11"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="14"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36">
         <v>1</v>
       </c>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42" s="10"/>
-      <c r="F42" t="s">
-        <v>153</v>
-      </c>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="10"/>
-      <c r="F43" t="s">
-        <v>156</v>
-      </c>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="2:18">
-      <c r="B44" s="10"/>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="B45" s="10"/>
-      <c r="E45" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="10"/>
-      <c r="E46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" t="s">
-        <v>130</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47" s="10"/>
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" t="s">
-        <v>133</v>
-      </c>
-      <c r="M47">
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="34">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="10"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="11"/>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="10"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="11"/>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="14"/>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" t="s">
+        <v>212</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8">
         <v>1</v>
       </c>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="B48" s="10"/>
-      <c r="E48" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" t="s">
-        <v>177</v>
-      </c>
-      <c r="M48">
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="10"/>
+      <c r="E84" t="s">
+        <v>165</v>
+      </c>
+      <c r="I84" t="s">
+        <v>164</v>
+      </c>
+      <c r="M84">
         <v>1</v>
       </c>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="B49" s="10"/>
-      <c r="E49" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" t="s">
-        <v>178</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="B50" s="10"/>
-      <c r="E50" t="s">
-        <v>176</v>
-      </c>
-      <c r="I50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51" s="10"/>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="B52" s="10"/>
-      <c r="E52" t="s">
-        <v>180</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="B53" s="10"/>
-      <c r="E53" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="P53" s="11"/>
-    </row>
-    <row r="54" spans="2:16">
-      <c r="B54" s="10"/>
-      <c r="E54" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" t="s">
-        <v>142</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="14"/>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8">
-        <v>1</v>
-      </c>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="B57" s="10"/>
-      <c r="F57" t="s">
-        <v>146</v>
-      </c>
-      <c r="J57" t="s">
-        <v>147</v>
-      </c>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="14"/>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8">
-        <v>1</v>
-      </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="9"/>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="10"/>
-      <c r="C60" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" t="s">
-        <v>149</v>
-      </c>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="B61" s="10"/>
-      <c r="C61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" t="s">
-        <v>150</v>
-      </c>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="B62" s="10"/>
-      <c r="F62" t="s">
-        <v>155</v>
-      </c>
-      <c r="I62" t="s">
-        <v>154</v>
-      </c>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="14"/>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="B64" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8">
-        <v>1</v>
-      </c>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="9"/>
-    </row>
-    <row r="65" spans="2:16">
-      <c r="B65" s="10"/>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="2:16">
-      <c r="B66" s="10"/>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="2:16">
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="14"/>
-    </row>
-    <row r="68" spans="2:16">
-      <c r="B68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8" t="s">
+      <c r="O84" t="s">
+        <v>213</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="10"/>
+      <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I85" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="9"/>
-    </row>
-    <row r="69" spans="2:16">
-      <c r="B69" s="10"/>
-      <c r="E69" t="s">
-        <v>168</v>
-      </c>
-      <c r="I69" t="s">
-        <v>169</v>
-      </c>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="2:16">
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="14"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="11"/>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="10"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="11"/>
+    </row>
+    <row r="87" spans="2:18" ht="19.5" thickBot="1">
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="R87" s="30">
+        <f>R72+R74+R83</f>
+        <v>9000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5235,4 +6787,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939BCA7-4346-462E-A7AB-062CEF5C27CE}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/etc/PrintPupper_design.xlsx
+++ b/etc/PrintPupper_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2fc58c125a83494/OneDriveWork2/DogRobot_2/git/PrintPupper/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{9CC67CED-55A3-4FF6-B430-CC58A595A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C015C163-E13B-4DE1-86E0-CDE208B141B8}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{9CC67CED-55A3-4FF6-B430-CC58A595A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15BAA9BF-A843-47B8-B01A-265225E4DEBD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="234">
   <si>
     <t>Front Right</t>
     <phoneticPr fontId="1"/>
@@ -740,25 +740,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Raspberry Pi "3" or "4" or "Zero W"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラズベリーパイ 3または4またはZero W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ Zero2 W is ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※Zero2 Wでも可</t>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Battery バッテリー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1079,10 +1060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Zero</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エレコム ワイヤレス ゲームパッド JC-U3912TBK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1238,6 +1215,28 @@
   </si>
   <si>
     <t>a robots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raspberry Pi "3" or "4" or "Zero 2 W"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズベリーパイ 3または4またはZero 2 W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ Zero W is NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Zero W は動作不可</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1249,7 +1248,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1328,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
@@ -1577,7 +1584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1666,6 +1673,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4237,7 +4245,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="19.5" thickBot="1">
       <c r="B2" s="40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -4269,11 +4277,11 @@
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -4284,13 +4292,13 @@
         <v>42000</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="45" t="s">
@@ -4305,7 +4313,7 @@
         <v>4368</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
@@ -4328,7 +4336,7 @@
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="73" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L6" s="46"/>
       <c r="M6" s="58"/>
@@ -4349,7 +4357,7 @@
         <v>1564</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
@@ -4375,7 +4383,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I9" s="19"/>
       <c r="X9" s="11"/>
@@ -4384,7 +4392,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I10" s="19"/>
       <c r="X10" s="11"/>
@@ -4393,7 +4401,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13"/>
@@ -4413,7 +4421,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I12" s="55">
         <f>SUM(I4:I11)</f>
@@ -4423,10 +4431,10 @@
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="78" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I13" s="37"/>
       <c r="X13" s="11"/>
@@ -4460,19 +4468,19 @@
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25" t="s">
@@ -4482,14 +4490,14 @@
         <v>85</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="S15" s="29"/>
       <c r="T15" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
@@ -4498,13 +4506,13 @@
     </row>
     <row r="16" spans="2:24">
       <c r="B16" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M16">
         <f>O16*4+P16*2</f>
@@ -4527,10 +4535,10 @@
     <row r="17" spans="2:24">
       <c r="B17" s="10"/>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="10"/>
@@ -4885,13 +4893,13 @@
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
@@ -4947,7 +4955,7 @@
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
       <c r="I30" s="46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
@@ -4982,7 +4990,7 @@
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
       <c r="I31" s="46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
@@ -5032,13 +5040,13 @@
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
       <c r="I33" s="46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
@@ -5141,18 +5149,18 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
@@ -5214,7 +5222,7 @@
       <c r="O39" s="70"/>
       <c r="P39" s="71"/>
       <c r="Q39" s="69" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R39" s="72">
         <f>SUM(R19:R37)</f>
@@ -5248,12 +5256,12 @@
       <c r="O40" s="46"/>
       <c r="P40" s="58"/>
       <c r="Q40" s="53" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R40" s="58"/>
       <c r="S40" s="10"/>
       <c r="T40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X40" s="11"/>
     </row>
@@ -5285,12 +5293,12 @@
       <c r="O41" s="46"/>
       <c r="P41" s="58"/>
       <c r="Q41" s="53" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="R41" s="58"/>
       <c r="S41" s="10"/>
       <c r="T41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="X41" s="11"/>
     </row>
@@ -5317,12 +5325,12 @@
       <c r="O42" s="46"/>
       <c r="P42" s="58"/>
       <c r="Q42" s="53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R42" s="58"/>
       <c r="S42" s="10"/>
       <c r="T42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="X42" s="11"/>
     </row>
@@ -5349,12 +5357,12 @@
       <c r="O43" s="46"/>
       <c r="P43" s="58"/>
       <c r="Q43" s="53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R43" s="58"/>
       <c r="S43" s="10"/>
       <c r="T43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X43" s="11"/>
     </row>
@@ -5384,7 +5392,7 @@
       <c r="R44" s="58"/>
       <c r="S44" s="10"/>
       <c r="T44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X44" s="11"/>
     </row>
@@ -5399,7 +5407,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
       <c r="I45" s="46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -5414,7 +5422,7 @@
       <c r="R45" s="58"/>
       <c r="S45" s="10"/>
       <c r="T45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X45" s="11"/>
     </row>
@@ -5429,7 +5437,7 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
       <c r="I46" s="46" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
@@ -5444,7 +5452,7 @@
       <c r="R46" s="58"/>
       <c r="S46" s="10"/>
       <c r="T46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="X46" s="11"/>
     </row>
@@ -5459,7 +5467,7 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
       <c r="I47" s="46" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
@@ -5474,7 +5482,7 @@
       <c r="R47" s="58"/>
       <c r="S47" s="10"/>
       <c r="T47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="X47" s="11"/>
     </row>
@@ -5504,7 +5512,7 @@
       <c r="R48" s="58"/>
       <c r="S48" s="10"/>
       <c r="T48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="X48" s="11"/>
     </row>
@@ -5534,7 +5542,7 @@
       <c r="R49" s="58"/>
       <c r="S49" s="10"/>
       <c r="T49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="X49" s="11"/>
     </row>
@@ -5564,7 +5572,7 @@
       <c r="R50" s="58"/>
       <c r="S50" s="10"/>
       <c r="T50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="X50" s="11"/>
     </row>
@@ -5594,7 +5602,7 @@
       <c r="R51" s="58"/>
       <c r="S51" s="10"/>
       <c r="T51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="X51" s="11"/>
     </row>
@@ -5624,7 +5632,7 @@
       <c r="R52" s="58"/>
       <c r="S52" s="10"/>
       <c r="T52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="X52" s="11"/>
     </row>
@@ -5666,7 +5674,7 @@
       <c r="O54" s="70"/>
       <c r="P54" s="71"/>
       <c r="Q54" s="69" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R54" s="72">
         <v>2800</v>
@@ -5711,7 +5719,7 @@
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
@@ -5754,13 +5762,13 @@
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
       <c r="F57" s="42" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="42"/>
@@ -5885,13 +5893,13 @@
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62" s="42" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J62" s="42"/>
       <c r="K62" s="42"/>
@@ -5915,13 +5923,13 @@
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
       <c r="E63" s="42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
       <c r="I63" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
@@ -5945,13 +5953,13 @@
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
       <c r="E64" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
       <c r="I64" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
@@ -6005,13 +6013,13 @@
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
       <c r="E66" s="42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
       <c r="I66" s="42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
@@ -6126,7 +6134,7 @@
       <c r="O70" s="65"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="64" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R70" s="67">
         <f>SUM(R55:R68)</f>
@@ -6138,16 +6146,16 @@
         <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="I71" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q71" s="10"/>
       <c r="R71" s="19">
@@ -6156,18 +6164,16 @@
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="10"/>
-      <c r="F72" t="s">
-        <v>146</v>
-      </c>
-      <c r="J72" t="s">
-        <v>147</v>
-      </c>
-      <c r="O72" t="s">
-        <v>213</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>211</v>
-      </c>
+      <c r="F72" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="P72" s="11"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="19">
         <v>4000</v>
@@ -6181,13 +6187,13 @@
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -6201,10 +6207,10 @@
     <row r="75" spans="2:18">
       <c r="B75" s="10"/>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P75" s="11"/>
       <c r="Q75" s="10"/>
@@ -6213,10 +6219,10 @@
     <row r="76" spans="2:18">
       <c r="B76" s="10"/>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P76" s="11"/>
       <c r="Q76" s="10"/>
@@ -6225,10 +6231,10 @@
     <row r="77" spans="2:18">
       <c r="B77" s="10"/>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="10"/>
@@ -6315,12 +6321,12 @@
     </row>
     <row r="83" spans="2:18">
       <c r="B83" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -6331,7 +6337,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q83" s="7"/>
       <c r="R83" s="19">
@@ -6341,19 +6347,19 @@
     <row r="84" spans="2:18">
       <c r="B84" s="10"/>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P84" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q84" s="18"/>
       <c r="R84" s="19">
@@ -6363,10 +6369,10 @@
     <row r="85" spans="2:18">
       <c r="B85" s="10"/>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P85" s="11"/>
       <c r="Q85" s="10"/>
@@ -6395,7 +6401,7 @@
       <c r="O87" s="23"/>
       <c r="P87" s="24"/>
       <c r="Q87" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R87" s="30">
         <f>R72+R74+R83</f>
@@ -6799,7 +6805,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
